--- a/biology/Botanique/Anthémis/Anthémis.xlsx
+++ b/biology/Botanique/Anthémis/Anthémis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anth%C3%A9mis</t>
+          <t>Anthémis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthemis
 Anthemis est un genre de plantes à fleurs, les anthémis, de la famille des Asteraceae (ou Composées). L'espèce sans doute la plus connue est l'anthémis des teinturiers (Anthemis tinctoria). Certaines de ses espèces, comme celles d'autres genres voisins, prennent le nom vernaculaire de camomille .
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anth%C3%A9mis</t>
+          <t>Anthémis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Caractéristiques du genre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes herbacées à feuilles alternes, très divisées. Comme toujours au sein de la famille des Asteraceae (Composées), ce qu'on appelle communément « fleur » est un capitule. Les capitules des Anthemis sont formés d'un disque de fleurs tubulées jaunes entourées de fleurs ligulées généralement blanches ou jaunes, à trois dents.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anth%C3%A9mis</t>
+          <t>Anthémis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthemis altissima L.
 Anthemis arvensis L. - Anthémis des champs
@@ -572,7 +588,7 @@
 Anthemis triumfetti (L.) DC.
 Anthemis tuberculata
 Anthemis zyghia Woronow
-Selon le site Plants of the World Online, les espèces suivantes sont acceptées[1]:
+Selon le site Plants of the World Online, les espèces suivantes sont acceptées:
 Anthemis aaronsohnii Eig
 Anthemis abrotanifolia (Willd.) Guss.
 Anthemis abylaea (Font Quer &amp; Maire) Oberpr.
@@ -742,7 +758,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anth%C3%A9mis</t>
+          <t>Anthémis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -760,7 +776,9 @@
           <t>Espèce retirée du genre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour Anthemis nobilis L., voir Chamaemelum nobile (L.) All. (Camomille romaine)
 </t>
@@ -773,7 +791,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Anth%C3%A9mis</t>
+          <t>Anthémis</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -791,7 +809,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de ce genre provient du grec anthos et signifie « fleurette ».
 </t>
@@ -804,7 +824,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Anth%C3%A9mis</t>
+          <t>Anthémis</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -822,9 +842,11 @@
           <t>Langage des fleurs</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le langage des fleurs, l'anthémis symbolise un amour terminé[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, l'anthémis symbolise un amour terminé.
 </t>
         </is>
       </c>
